--- a/user-data/kenya-pop-sex-ratio/kenya-pop-sex-ratio.xlsx
+++ b/user-data/kenya-pop-sex-ratio/kenya-pop-sex-ratio.xlsx
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 43</t>
+    <t xml:space="preserve">Source: 44</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-pop-sex-ratio/kenya-pop-sex-ratio.xlsx
+++ b/user-data/kenya-pop-sex-ratio/kenya-pop-sex-ratio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -316,6 +316,9 @@
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: kenya-pop-sex-ratio</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 44</t>
+    <t xml:space="preserve">Source: 38</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -683,77 +686,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -814,16 +817,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D4" t="n">
-        <v>99.0651635963706</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="5">
@@ -834,1270 +837,1928 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>98.7016372211963</v>
+        <v>99.0651635963706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>95.2851820005732</v>
+        <v>98.7016372211963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>95.456102570663</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>91.2062256809339</v>
+        <v>95.2851820005732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>91.8256735013821</v>
+        <v>95.456102570663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="n">
-        <v>98.9696312364425</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D11" t="n">
-        <v>98.6459787393965</v>
+        <v>91.2062256809339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>96.8641114982578</v>
+        <v>91.8256735013821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>97.0959379020958</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>2013</v>
       </c>
       <c r="D14" t="n">
-        <v>115.247732030705</v>
+        <v>98.9696312364425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>116.249422985482</v>
+        <v>98.6459787393965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
-        <v>91.8457521590681</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>92.2435871863406</v>
+        <v>96.8641114982578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>102.028985507246</v>
+        <v>97.0959379020958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>105.882183908046</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>115.247732030705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>100.870922300872</v>
+        <v>116.249422985482</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="n">
-        <v>92.7902621722846</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D23" t="n">
-        <v>93.1748757069639</v>
+        <v>91.8457521590681</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>100.70460704607</v>
+        <v>92.2435871863406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>101.493520813904</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
         <v>2013</v>
       </c>
       <c r="D26" t="n">
-        <v>97.5603745687531</v>
+        <v>102.028985507246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>97.7988796999536</v>
+        <v>105.882183908046</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="n">
-        <v>92.8220428220428</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>93.263254320291</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>97.0132325141777</v>
+        <v>100.870922300872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.4594651190619</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>91.1144578313253</v>
+        <v>92.7902621722846</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>91.466855428053</v>
+        <v>93.1748757069639</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="n">
-        <v>94.9468085106383</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D35" t="n">
-        <v>96.0762846833647</v>
+        <v>100.70460704607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>90.1658090337336</v>
+        <v>101.493520813904</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>90.5640850013266</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
         <v>2013</v>
       </c>
       <c r="D38" t="n">
-        <v>94.3487458446661</v>
+        <v>97.5603745687531</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>94.6285793001012</v>
+        <v>97.7988796999536</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="n">
-        <v>97.5782038345106</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D41" t="n">
-        <v>99.0144664559675</v>
+        <v>92.8220428220428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C42" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>106.860706860707</v>
+        <v>93.263254320291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>109.384666144265</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C44" t="n">
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>97.489539748954</v>
+        <v>97.0132325141777</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>97.7844791113432</v>
+        <v>97.4594651190619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C46" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D46" t="n">
-        <v>94.4407382699577</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D47" t="n">
-        <v>94.9083000416467</v>
+        <v>91.1144578313253</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C48" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>119.879647539222</v>
+        <v>91.466855428053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>120.207679905885</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C50" t="n">
         <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>106.590257879656</v>
+        <v>94.9468085106383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>107.895526011396</v>
+        <v>96.0762846833647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="n">
-        <v>97.3882248782647</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>97.8138832777895</v>
+        <v>90.1658090337336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C54" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>93.5807208359991</v>
+        <v>90.5640850013266</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>93.9811426903603</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C56" t="n">
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>106.135244066279</v>
+        <v>94.3487458446661</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>107.62035690447</v>
+        <v>94.6285793001012</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C58" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D58" t="n">
-        <v>94.2691029900332</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D59" t="n">
-        <v>94.4600663892539</v>
+        <v>97.5782038345106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>103.402259364471</v>
+        <v>99.0144664559675</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>104.702182907095</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C62" t="n">
         <v>2013</v>
       </c>
       <c r="D62" t="n">
-        <v>99.3000763553067</v>
+        <v>106.860706860707</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>100.731023620864</v>
+        <v>109.384666144265</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D64" t="n">
-        <v>100.053864799354</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C65" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D65" t="n">
-        <v>100.002921825238</v>
+        <v>97.489539748954</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C66" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>100.907137741704</v>
+        <v>97.7844791113432</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>101.690472014297</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C68" t="n">
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>95.5483170466884</v>
+        <v>94.4407382699577</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>95.490129977151</v>
+        <v>94.9083000416467</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C70" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>92.4301494476933</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>92.2378889731494</v>
+        <v>119.879647539222</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C72" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>95.9454968428049</v>
+        <v>120.207679905885</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C73" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>96.0679089680481</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C74" t="n">
         <v>2013</v>
       </c>
       <c r="D74" t="n">
-        <v>95.2572578327106</v>
+        <v>106.590257879656</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>96.0128083022217</v>
+        <v>107.895526011396</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D76" t="n">
-        <v>99.0107913669065</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C77" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>100.059853492943</v>
+        <v>97.3882248782647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C78" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>89.7610921501707</v>
+        <v>97.8138832777895</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>89.8569148792297</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C80" t="n">
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>101.391941391941</v>
+        <v>93.5807208359991</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>104.314434802581</v>
+        <v>93.9811426903603</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C82" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D82" t="n">
-        <v>98.917568692756</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D83" t="n">
-        <v>99.6930678245246</v>
+        <v>106.135244066279</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C84" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>98.4313725490196</v>
+        <v>107.62035690447</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C85" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>98.9278034913809</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C86" t="n">
         <v>2013</v>
       </c>
       <c r="D86" t="n">
-        <v>108.094186902134</v>
+        <v>94.2691029900332</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>108.466112641045</v>
+        <v>94.4600663892539</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C88" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D88" t="n">
-        <v>99.36</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>100.85559935757</v>
+        <v>103.402259364471</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C90" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>90.0969529085873</v>
+        <v>104.702182907095</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>90.0002055456208</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C92" t="n">
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>121.28446536651</v>
+        <v>99.3000763553067</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>121.997484698583</v>
+        <v>100.731023620864</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C94" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D94" t="n">
-        <v>98.7519500780031</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100.053864799354</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D96" t="n">
+        <v>100.002921825238</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D97" t="n">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D98" t="n">
+        <v>100.907137741704</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D99" t="n">
+        <v>101.690472014297</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D100" t="n">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D101" t="n">
+        <v>95.5483170466884</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D102" t="n">
+        <v>95.490129977151</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D103" t="n">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D104" t="n">
+        <v>92.4301494476933</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D105" t="n">
+        <v>92.2378889731494</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D106" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D107" t="n">
+        <v>95.9454968428049</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D108" t="n">
+        <v>96.0679089680481</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D109" t="n">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D110" t="n">
+        <v>95.2572578327106</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D111" t="n">
+        <v>96.0128083022217</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D112" t="n">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D113" t="n">
+        <v>99.0107913669065</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D114" t="n">
+        <v>100.059853492943</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D116" t="n">
+        <v>89.7610921501707</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D117" t="n">
+        <v>89.8569148792297</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D118" t="n">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D119" t="n">
+        <v>101.391941391941</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D120" t="n">
+        <v>104.314434802581</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D121" t="n">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D122" t="n">
+        <v>98.917568692756</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D123" t="n">
+        <v>99.6930678245246</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D124" t="n">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D125" t="n">
+        <v>98.4313725490196</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D126" t="n">
+        <v>98.9278034913809</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D127" t="n">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D128" t="n">
+        <v>108.094186902134</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D129" t="n">
+        <v>108.466112641045</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D130" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>90</v>
+      </c>
+      <c r="B131" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D131" t="n">
+        <v>99.36</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D132" t="n">
+        <v>100.85559935757</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D133" t="n">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D134" t="n">
+        <v>90.0969529085873</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D135" t="n">
+        <v>90.0002055456208</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="n">
+        <v>121.28446536651</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D138" t="n">
+        <v>121.997484698583</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D139" t="n">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B140" t="s">
         <v>97</v>
       </c>
-      <c r="C95" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D140" t="n">
+        <v>98.7519500780031</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D141" t="n">
         <v>98.8226306216867</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D142" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2124,6 +2785,9 @@
       <c r="C1" t="s">
         <v>99</v>
       </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2135,6 +2799,9 @@
       <c r="C2" t="n">
         <v>100.940755208333</v>
       </c>
+      <c r="D2" t="n">
+        <v>93.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2146,6 +2813,9 @@
       <c r="C3" t="n">
         <v>98.7016372211963</v>
       </c>
+      <c r="D3" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2157,6 +2827,9 @@
       <c r="C4" t="n">
         <v>95.456102570663</v>
       </c>
+      <c r="D4" t="n">
+        <v>91.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2168,6 +2841,9 @@
       <c r="C5" t="n">
         <v>91.8256735013821</v>
       </c>
+      <c r="D5" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2179,6 +2855,9 @@
       <c r="C6" t="n">
         <v>98.6459787393965</v>
       </c>
+      <c r="D6" t="n">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2190,6 +2869,9 @@
       <c r="C7" t="n">
         <v>97.0959379020958</v>
       </c>
+      <c r="D7" t="n">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2201,6 +2883,9 @@
       <c r="C8" t="n">
         <v>116.249422985482</v>
       </c>
+      <c r="D8" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2212,6 +2897,9 @@
       <c r="C9" t="n">
         <v>92.2435871863406</v>
       </c>
+      <c r="D9" t="n">
+        <v>91.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2223,6 +2911,9 @@
       <c r="C10" t="n">
         <v>105.882183908046</v>
       </c>
+      <c r="D10" t="n">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2234,6 +2925,9 @@
       <c r="C11" t="n">
         <v>100.870922300872</v>
       </c>
+      <c r="D11" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2245,6 +2939,9 @@
       <c r="C12" t="n">
         <v>93.1748757069639</v>
       </c>
+      <c r="D12" t="n">
+        <v>94.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2256,6 +2953,9 @@
       <c r="C13" t="n">
         <v>101.493520813904</v>
       </c>
+      <c r="D13" t="n">
+        <v>99.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2267,6 +2967,9 @@
       <c r="C14" t="n">
         <v>97.7988796999536</v>
       </c>
+      <c r="D14" t="n">
+        <v>104.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2278,6 +2981,9 @@
       <c r="C15" t="n">
         <v>93.263254320291</v>
       </c>
+      <c r="D15" t="n">
+        <v>88.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2289,6 +2995,9 @@
       <c r="C16" t="n">
         <v>97.4594651190619</v>
       </c>
+      <c r="D16" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2300,6 +3009,9 @@
       <c r="C17" t="n">
         <v>91.466855428053</v>
       </c>
+      <c r="D17" t="n">
+        <v>99.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2311,6 +3023,9 @@
       <c r="C18" t="n">
         <v>96.0762846833647</v>
       </c>
+      <c r="D18" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2322,6 +3037,9 @@
       <c r="C19" t="n">
         <v>90.5640850013266</v>
       </c>
+      <c r="D19" t="n">
+        <v>90.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2333,6 +3051,9 @@
       <c r="C20" t="n">
         <v>94.6285793001012</v>
       </c>
+      <c r="D20" t="n">
+        <v>101.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2344,6 +3065,9 @@
       <c r="C21" t="n">
         <v>99.0144664559675</v>
       </c>
+      <c r="D21" t="n">
+        <v>99.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2355,6 +3079,9 @@
       <c r="C22" t="n">
         <v>109.384666144265</v>
       </c>
+      <c r="D22" t="n">
+        <v>97.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2366,6 +3093,9 @@
       <c r="C23" t="n">
         <v>97.7844791113432</v>
       </c>
+      <c r="D23" t="n">
+        <v>99.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2377,6 +3107,9 @@
       <c r="C24" t="n">
         <v>94.9083000416467</v>
       </c>
+      <c r="D24" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2388,6 +3121,9 @@
       <c r="C25" t="n">
         <v>120.207679905885</v>
       </c>
+      <c r="D25" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2399,6 +3135,9 @@
       <c r="C26" t="n">
         <v>107.895526011396</v>
       </c>
+      <c r="D26" t="n">
+        <v>108.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2410,6 +3149,9 @@
       <c r="C27" t="n">
         <v>97.8138832777895</v>
       </c>
+      <c r="D27" t="n">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2421,6 +3163,9 @@
       <c r="C28" t="n">
         <v>93.9811426903603</v>
       </c>
+      <c r="D28" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2432,6 +3177,9 @@
       <c r="C29" t="n">
         <v>107.62035690447</v>
       </c>
+      <c r="D29" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2443,6 +3191,9 @@
       <c r="C30" t="n">
         <v>94.4600663892539</v>
       </c>
+      <c r="D30" t="n">
+        <v>90.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2454,6 +3205,9 @@
       <c r="C31" t="n">
         <v>104.702182907095</v>
       </c>
+      <c r="D31" t="n">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2465,6 +3219,9 @@
       <c r="C32" t="n">
         <v>100.731023620864</v>
       </c>
+      <c r="D32" t="n">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2476,6 +3233,9 @@
       <c r="C33" t="n">
         <v>100.002921825238</v>
       </c>
+      <c r="D33" t="n">
+        <v>98.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2487,6 +3247,9 @@
       <c r="C34" t="n">
         <v>101.690472014297</v>
       </c>
+      <c r="D34" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2498,6 +3261,9 @@
       <c r="C35" t="n">
         <v>95.490129977151</v>
       </c>
+      <c r="D35" t="n">
+        <v>96.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2509,6 +3275,9 @@
       <c r="C36" t="n">
         <v>92.2378889731494</v>
       </c>
+      <c r="D36" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2520,6 +3289,9 @@
       <c r="C37" t="n">
         <v>96.0679089680481</v>
       </c>
+      <c r="D37" t="n">
+        <v>99.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -2531,6 +3303,9 @@
       <c r="C38" t="n">
         <v>96.0128083022217</v>
       </c>
+      <c r="D38" t="n">
+        <v>94.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2542,6 +3317,9 @@
       <c r="C39" t="n">
         <v>100.059853492943</v>
       </c>
+      <c r="D39" t="n">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2553,6 +3331,9 @@
       <c r="C40" t="n">
         <v>89.8569148792297</v>
       </c>
+      <c r="D40" t="n">
+        <v>89.9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -2564,6 +3345,9 @@
       <c r="C41" t="n">
         <v>104.314434802581</v>
       </c>
+      <c r="D41" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -2575,6 +3359,9 @@
       <c r="C42" t="n">
         <v>99.6930678245246</v>
       </c>
+      <c r="D42" t="n">
+        <v>98.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -2586,6 +3373,9 @@
       <c r="C43" t="n">
         <v>98.9278034913809</v>
       </c>
+      <c r="D43" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -2597,6 +3387,9 @@
       <c r="C44" t="n">
         <v>108.466112641045</v>
       </c>
+      <c r="D44" t="n">
+        <v>90.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -2608,6 +3401,9 @@
       <c r="C45" t="n">
         <v>100.85559935757</v>
       </c>
+      <c r="D45" t="n">
+        <v>97.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -2619,6 +3415,9 @@
       <c r="C46" t="n">
         <v>90.0002055456208</v>
       </c>
+      <c r="D46" t="n">
+        <v>99.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -2630,6 +3429,9 @@
       <c r="C47" t="n">
         <v>121.997484698583</v>
       </c>
+      <c r="D47" t="n">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -2640,6 +3442,9 @@
       </c>
       <c r="C48" t="n">
         <v>98.8226306216867</v>
+      </c>
+      <c r="D48" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
